--- a/BD/Modelagens/SPMG-Fisico.xlsx
+++ b/BD/Modelagens/SPMG-Fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Thiago Henrique\SPMedicalGroups-ThiagoHenrique\BD\Modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Desktop\SENAI\SPMedicalGroups-ThiagoHenrique\BD\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABE25DD-B4B8-4F2A-ACC5-77B2E6409DFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500217EC-192D-47FB-937C-A0C37AE57CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11316" activeTab="1" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="7" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
   </bookViews>
   <sheets>
     <sheet name="clinica" sheetId="5" r:id="rId1"/>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -488,6 +488,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -809,17 +812,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -842,7 +844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -874,17 +876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF33F1-98E8-4CC6-87D3-BDBB42E976FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -892,7 +894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -900,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -908,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -926,19 +928,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -955,7 +957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -972,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -989,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1165,15 +1167,16 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1181,136 +1184,136 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1330,13 +1333,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1414,18 +1417,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1620,9 +1623,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1663,18 +1666,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6CFD79-5AE2-4940-9527-C4C5E983DE8A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>43850.625</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>43836.416666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>43868.458333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>43137.416666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>43503.458854166667</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>43898.625</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
